--- a/SuppXLS/Scen_2.0_Time-TS2-60.xlsx
+++ b/SuppXLS/Scen_2.0_Time-TS2-60.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\esma\OTAI\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\esma\DEVTAI\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E0D8F1-7861-4373-BE9B-7538BE3993F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665DD961-F120-44F3-8AE2-BBF37BF49C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76695" yWindow="0" windowWidth="38610" windowHeight="20985" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53085" yWindow="3705" windowWidth="57600" windowHeight="15345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeSlices" sheetId="8" r:id="rId1"/>
@@ -330,7 +330,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>ENWO</t>
+    <t>EWNO</t>
   </si>
 </sst>
 </file>
@@ -2720,7 +2720,7 @@
   <dimension ref="A1:F650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F62"/>
+      <selection activeCell="D3" sqref="D3:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2739,10 +2739,12 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="2">
-        <v>1.000000000003</v>
+        <f>SUM(E3:E62)</f>
+        <v>0.99999999299999986</v>
       </c>
       <c r="F1" s="2">
-        <v>0.99999999999800016</v>
+        <f>SUM(F3:F62)</f>
+        <v>0.99999999900000014</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -6329,8 +6331,8 @@
   </sheetPr>
   <dimension ref="A1:F650"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F62"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9940,7 +9942,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F62"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11197,7 +11199,7 @@
   </sheetPr>
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
